--- a/Sleep&BehavioralHealth.xlsx
+++ b/Sleep&BehavioralHealth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cecilia Machado\Documents\GitHub\supervised-machine-learning-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26922DCF-0248-438D-9C2B-41B76AB8AA42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB74E30-C85D-4E13-BC1E-35D8018FF411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,40 +28,40 @@
     <t>day</t>
   </si>
   <si>
-    <t>step count</t>
+    <t>step</t>
   </si>
   <si>
-    <t>distance travelled (km)</t>
+    <t>dist</t>
   </si>
   <si>
-    <t>calories burnt (kcal)</t>
+    <t>cal</t>
   </si>
   <si>
-    <t>acive time (minutes)</t>
+    <t>active</t>
   </si>
   <si>
-    <t>duration in bed (minutes)</t>
+    <t>inbed</t>
   </si>
   <si>
-    <t>in bed awake duration (minutes)</t>
+    <t>inbedaw</t>
   </si>
   <si>
-    <t>light sleep duration (minutes)</t>
+    <t>lightsl</t>
   </si>
   <si>
-    <t>deep sleep duration (minutes) (minutes)</t>
+    <t>deepsl</t>
   </si>
   <si>
-    <t>REM duration (minutes)</t>
+    <t>REMsl</t>
   </si>
   <si>
-    <t>total phone usage / day (minutes)</t>
+    <t>tphone</t>
   </si>
   <si>
-    <t>night time phone usage / day (minutes)</t>
+    <t>nphone</t>
   </si>
   <si>
-    <t>phone unlock count / day</t>
+    <t>unphone</t>
   </si>
 </sst>
 </file>
@@ -549,48 +549,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -904,11 +904,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.7109375" bestFit="1" customWidth="1"/>
